--- a/Pendientes.xlsx
+++ b/Pendientes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="-260" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,15 +104,9 @@
     <t>R7.- en caso de anulación se comunica al proveedor en caso de anulación o rechazo</t>
   </si>
   <si>
-    <t>10.- Validar el ingreso del Nro de OC, sea 100% correcto, esto se puede validar en el speed si se ingresa el Nro Instancia</t>
-  </si>
-  <si>
     <t>11.- el comentario se debe precisar (servicio)</t>
   </si>
   <si>
-    <t>12.- definir saltos de flujos en base a los montos</t>
-  </si>
-  <si>
     <t>13.- separar la cotización de bienes y servicios</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>?18.- La validación de administaración por montos reducibles (conversación)</t>
+  </si>
+  <si>
+    <t>F10.- Validar el ingreso del Nro de OC, sea 100% correcto, esto se puede validar en el speed si se ingresa el Nro Instancia</t>
+  </si>
+  <si>
+    <t>F12.- definir saltos de flujos en base a los montos</t>
   </si>
 </sst>
 </file>
@@ -206,7 +206,30 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -228,12 +251,75 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -632,9 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -706,7 +790,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -724,16 +808,16 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>F</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -742,16 +826,16 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>F</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -778,7 +862,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -787,7 +871,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -796,7 +880,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -814,7 +898,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -868,7 +952,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -877,7 +961,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -922,7 +1006,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -949,7 +1033,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -958,7 +1042,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -967,7 +1051,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -1003,7 +1087,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -1012,7 +1096,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -1021,7 +1105,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -1030,7 +1114,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -1039,7 +1123,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -1048,7 +1132,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -1057,14 +1141,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>B1="?"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>B1="R"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>B1="X"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="1">
-      <formula>B1="?"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>B1="R"</formula>
+      <formula>B1="F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
